--- a/Robot/www/user_input_data_case_1.xlsx
+++ b/Robot/www/user_input_data_case_1.xlsx
@@ -877,7 +877,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1131,10 +1131,10 @@
         <v>35</v>
       </c>
       <c r="C18" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">

--- a/Robot/www/user_input_data_case_1.xlsx
+++ b/Robot/www/user_input_data_case_1.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-37720" yWindow="3680" windowWidth="10100" windowHeight="14980" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="18140" yWindow="940" windowWidth="19740" windowHeight="18680"/>
   </bookViews>
   <sheets>
     <sheet name="common_variables" sheetId="1" r:id="rId1"/>
     <sheet name="profile_specific_variables" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
   <si>
     <t>variable</t>
   </si>
@@ -224,6 +224,213 @@
   </si>
   <si>
     <t>n_yr_milking2</t>
+  </si>
+  <si>
+    <t>delay_milk_increase</t>
+  </si>
+  <si>
+    <t>delay_labor_saving</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Current herd size (milking &amp; dry animals)</t>
+  </si>
+  <si>
+    <t>Milk per cow per day, past year (lbs/cow/day)</t>
+  </si>
+  <si>
+    <t>Current annual bulk tank average SCC (SCC/ml)</t>
+  </si>
+  <si>
+    <t>Current hours of milking &amp; chore labor (hours/day)</t>
+  </si>
+  <si>
+    <t>Current hours of heat detection (hours per day)</t>
+  </si>
+  <si>
+    <t>Mailbox milk price ($/cwt)</t>
+  </si>
+  <si>
+    <t>SCC premium per 1,000 SCC (SCC/ml)</t>
+  </si>
+  <si>
+    <t>Cost per lb of TMR dry matter ($ per lb DM)</t>
+  </si>
+  <si>
+    <t>Cost of replacement heifer ($)</t>
+  </si>
+  <si>
+    <t>Cull price per cow ($)</t>
+  </si>
+  <si>
+    <t>Labor rate for milking and heat detection ($/hour)</t>
+  </si>
+  <si>
+    <t>Labor rate for records and labor management ($/hour)</t>
+  </si>
+  <si>
+    <t>Robot/parlor &amp; related-housing prices (%)</t>
+  </si>
+  <si>
+    <t>Margin milk over feed &amp; operation per cow with robots (%)</t>
+  </si>
+  <si>
+    <t>Milking &amp; chore labor rate per hour (%)</t>
+  </si>
+  <si>
+    <t>Hurdle rate for equity (%)</t>
+  </si>
+  <si>
+    <t>Marginal (federal + state) income tax rate (%)</t>
+  </si>
+  <si>
+    <t>Depreciation accounting method</t>
+  </si>
+  <si>
+    <t>Milk per cow per day</t>
+  </si>
+  <si>
+    <t>Milk fat content (%)</t>
+  </si>
+  <si>
+    <t>Coefficient for Milk fat content</t>
+  </si>
+  <si>
+    <t>Coefficient for Milk/cow/day adjusted to 4% fat</t>
+  </si>
+  <si>
+    <t>Coefficient 1 for Milking herd avg body weight</t>
+  </si>
+  <si>
+    <t>Coefficient 2 for Milking herd avg body weight</t>
+  </si>
+  <si>
+    <t>Lactation weeks</t>
+  </si>
+  <si>
+    <t>Coefficient 1 for Lactation weeks</t>
+  </si>
+  <si>
+    <t>Coefficient 2 for Lactation weeks</t>
+  </si>
+  <si>
+    <t>body_weight</t>
+  </si>
+  <si>
+    <t>Milking herd avg body weight (lb)</t>
+  </si>
+  <si>
+    <t>Anticipated increase in milking herd (cows)</t>
+  </si>
+  <si>
+    <t>Additional labor expense with herd expansion ($/cow)</t>
+  </si>
+  <si>
+    <t>Other expense with herd expansion ($/cow)</t>
+  </si>
+  <si>
+    <t>Unit cost for Robots ($)</t>
+  </si>
+  <si>
+    <t>Number of Robots (units)</t>
+  </si>
+  <si>
+    <t>Housing changes per cow ($)</t>
+  </si>
+  <si>
+    <t>Cost for Retrofit or New Parlors ($)</t>
+  </si>
+  <si>
+    <t>Estimated annual change in milking system repair ($)</t>
+  </si>
+  <si>
+    <t>Robots useful life (years)</t>
+  </si>
+  <si>
+    <t>Sets of Robots or Parlors in planing horizon</t>
+  </si>
+  <si>
+    <t>Salvage value of Robots in today's term ($)</t>
+  </si>
+  <si>
+    <t>Insurance rate per $1000 value (%)</t>
+  </si>
+  <si>
+    <t>Projected change in milk production (lbs/cow/day)</t>
+  </si>
+  <si>
+    <t>Pellets fed in robot booth (lb/cow/day)</t>
+  </si>
+  <si>
+    <t>Extra cost for pellets fed in robot booth ($/ton)</t>
+  </si>
+  <si>
+    <t>Estimated percent change in SCC (%)</t>
+  </si>
+  <si>
+    <t>Reproduction and herd health value of software ($/cow/year)</t>
+  </si>
+  <si>
+    <t>Anticipated change in annual turnover rate (%)</t>
+  </si>
+  <si>
+    <t>Anticipated savings in milking &amp; chore labor (hours/day)</t>
+  </si>
+  <si>
+    <t>Anticipated hours of heat detection (hours/day)</t>
+  </si>
+  <si>
+    <t>Increased hours of records management (hours/day)</t>
+  </si>
+  <si>
+    <t>Reduced hours of labor management (hours/day)</t>
+  </si>
+  <si>
+    <t>Anticipated change in electricity cost ($/cow)</t>
+  </si>
+  <si>
+    <t>Anticipated change in water cost ($/cow)</t>
+  </si>
+  <si>
+    <t>Anticipated change in chemical cost ($/cow)</t>
+  </si>
+  <si>
+    <t>Year of investment for the first set of Robots/Parlors</t>
+  </si>
+  <si>
+    <t>Delayed amount of the housing investment till Robots/Parlors installment ($)</t>
+  </si>
+  <si>
+    <t>Portion of anticipated milk increase installed with the initial housing investment (%)</t>
+  </si>
+  <si>
+    <t>Portion of anticipated labor saving installed with the initial housing investment (%)</t>
+  </si>
+  <si>
+    <t>Down payment for housing ($)</t>
+  </si>
+  <si>
+    <t>Down payment for the first set of Robots/Parlors ($)</t>
+  </si>
+  <si>
+    <t>Down payment for the second set of Robots/Parlors ($)</t>
+  </si>
+  <si>
+    <t>Interest rate for housing loan (%)</t>
+  </si>
+  <si>
+    <t>Interest rate for robots/parlors loan (%)</t>
+  </si>
+  <si>
+    <t>Loan period for housing (year)</t>
+  </si>
+  <si>
+    <t>Loan period for the first set of robots/parlors (years)</t>
+  </si>
+  <si>
+    <t>Loan period for the second set of robots/parlors (years)</t>
   </si>
 </sst>
 </file>
@@ -233,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -244,6 +451,22 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -271,7 +494,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment wrapText="1"/>
@@ -288,14 +511,85 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="40">
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="XLConnect.Boolean" xfId="4"/>
     <cellStyle name="XLConnect.DateTime" xfId="5"/>
@@ -630,240 +924,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3">
         <v>0.65</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="3">
         <v>17.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="3">
         <v>0.115</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="3">
         <v>750</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="3">
         <v>3.65</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="3">
         <v>0.372</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="3">
         <v>9.6799999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3">
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="3">
         <v>-0.192</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="3">
         <v>3.67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -874,37 +1268,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="63.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
+      <c r="B2" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -912,13 +1310,16 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3">
-        <v>450</v>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C3" s="3">
         <v>450</v>
@@ -926,13 +1327,16 @@
       <c r="D3" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3">
-        <v>200</v>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C4" s="3">
         <v>200</v>
@@ -940,125 +1344,152 @@
       <c r="D4" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="3">
         <v>180000</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
+      <c r="B7" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>75000</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>400000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="3">
         <v>9500</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3000</v>
       </c>
       <c r="D8" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="3">
         <v>7000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1000</v>
       </c>
       <c r="D9" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="3">
         <v>15</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="3">
         <v>45000</v>
-      </c>
-      <c r="C12" s="2">
-        <v>25000</v>
       </c>
       <c r="D12" s="2">
         <v>25000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.5</v>
+      <c r="B13" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C13" s="3">
         <v>0.5</v>
@@ -1066,55 +1497,67 @@
       <c r="D13" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="3">
         <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>6</v>
       </c>
       <c r="D14" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="3">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="3">
         <v>20</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="3">
-        <v>-5</v>
+      <c r="B17" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C17" s="3">
         <v>-5</v>
@@ -1122,27 +1565,33 @@
       <c r="D17" s="3">
         <v>-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="3">
         <v>35</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="3">
-        <v>-1</v>
+      <c r="B19" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C19" s="3">
         <v>-1</v>
@@ -1150,69 +1599,84 @@
       <c r="D19" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="3">
         <v>10.82</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="3">
         <v>0.25</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.65</v>
       </c>
       <c r="D21" s="2">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="3">
         <v>0.6</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="3">
         <v>0.6</v>
       </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="3">
-        <v>8.25</v>
+      <c r="B24" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C24" s="3">
         <v>8.25</v>
@@ -1220,13 +1684,16 @@
       <c r="D24" s="3">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="3">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="3">
-        <v>-3</v>
+      <c r="B25" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C25" s="3">
         <v>-3</v>
@@ -1234,13 +1701,16 @@
       <c r="D25" s="3">
         <v>-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="3">
-        <v>1.5</v>
+      <c r="B26" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C26" s="3">
         <v>1.5</v>
@@ -1248,13 +1718,16 @@
       <c r="D26" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="3">
-        <v>0</v>
+      <c r="B27" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -1262,13 +1735,16 @@
       <c r="D27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="3">
-        <v>0</v>
+      <c r="B28" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -1276,121 +1752,183 @@
       <c r="D28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="5">
         <v>60</v>
       </c>
-      <c r="B29" s="3">
+      <c r="D29" s="5">
+        <v>100</v>
+      </c>
+      <c r="E29" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="3">
+        <v>40</v>
+      </c>
+      <c r="D30" s="3">
+        <v>50</v>
+      </c>
+      <c r="E30" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="3">
         <v>100000</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D31" s="3">
         <v>100000</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E31" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="3">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="3">
         <v>50000</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D33" s="3">
         <v>50000</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E33" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="3">
         <v>4</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D34" s="3">
         <v>4</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E34" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="3">
         <v>4</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D35" s="3">
         <v>4</v>
       </c>
-      <c r="D33" s="3">
+      <c r="E35" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="3">
         <v>24</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D36" s="2">
         <v>10</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E36" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="3">
         <v>12</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D37" s="2">
         <v>5</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E37" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="3">
         <v>12</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D38" s="2">
         <v>5</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E38" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Robot/www/user_input_data_case_1.xlsx
+++ b/Robot/www/user_input_data_case_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18140" yWindow="940" windowWidth="19740" windowHeight="18680"/>
+    <workbookView xWindow="2780" yWindow="820" windowWidth="17560" windowHeight="18680"/>
   </bookViews>
   <sheets>
     <sheet name="common_variables" sheetId="1" r:id="rId1"/>
@@ -927,7 +927,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1270,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
